--- a/data/statistical/filled_NaN_xlsx/江苏省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/江苏省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>36.6925</v>
       </c>
       <c r="E2">
-        <v>2234.580356448889</v>
+        <v>2234.580356359482</v>
       </c>
       <c r="F2">
         <v>6042.6</v>
@@ -609,85 +609,85 @@
         <v>2.18</v>
       </c>
       <c r="H2">
-        <v>44.57258771873603</v>
+        <v>44.57258771895431</v>
       </c>
       <c r="I2">
-        <v>4.00239422091181</v>
+        <v>4.002394220849965</v>
       </c>
       <c r="J2">
-        <v>80.57457149028778</v>
+        <v>80.57457150518894</v>
       </c>
       <c r="K2">
-        <v>37.62356568872929</v>
+        <v>37.62356568803079</v>
       </c>
       <c r="L2">
-        <v>1.206072841087007</v>
+        <v>1.206072841145215</v>
       </c>
       <c r="M2">
-        <v>106.1112512948457</v>
+        <v>106.1112512871623</v>
       </c>
       <c r="N2">
-        <v>211.2338235288044</v>
+        <v>211.233823528979</v>
       </c>
       <c r="O2">
-        <v>27.48313725134358</v>
+        <v>27.483137243893</v>
       </c>
       <c r="P2">
-        <v>557.9596084468067</v>
+        <v>557.9596083816141</v>
       </c>
       <c r="Q2">
-        <v>78.07791666861158</v>
+        <v>78.07791666826233</v>
       </c>
       <c r="R2">
-        <v>19.99373322469182</v>
+        <v>19.99373321910389</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-354674.4852600098</v>
       </c>
       <c r="T2">
-        <v>224951.8970501423</v>
+        <v>224951.897074461</v>
       </c>
       <c r="U2">
-        <v>1.382784950505489</v>
+        <v>1.461945556720709</v>
       </c>
       <c r="V2">
-        <v>69.23340557300253</v>
+        <v>69.23340557457414</v>
       </c>
       <c r="W2">
-        <v>86.3050769236288</v>
+        <v>86.30507692272658</v>
       </c>
       <c r="X2">
-        <v>32936.50735145807</v>
+        <v>32936.50735110044</v>
       </c>
       <c r="Y2">
-        <v>58.13853845425183</v>
+        <v>58.13853845751146</v>
       </c>
       <c r="Z2">
-        <v>60896.28856635094</v>
+        <v>60896.28856658936</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-6507.433565497398</v>
       </c>
       <c r="AB2">
-        <v>10448106.53381348</v>
+        <v>10448106.53039551</v>
       </c>
       <c r="AC2">
-        <v>11742930.6661377</v>
+        <v>11742930.66894531</v>
       </c>
       <c r="AD2">
-        <v>54895.75874710083</v>
+        <v>54895.7587594986</v>
       </c>
       <c r="AE2">
-        <v>687387.8744602203</v>
+        <v>687387.8744735718</v>
       </c>
       <c r="AF2">
-        <v>35446.63961990135</v>
+        <v>20703.12285038706</v>
       </c>
       <c r="AG2">
-        <v>115736.1571989059</v>
+        <v>115736.1572184563</v>
       </c>
       <c r="AH2">
-        <v>993149.595753142</v>
+        <v>905940.1471337127</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>2.01</v>
       </c>
       <c r="H3">
-        <v>46.61165763625468</v>
+        <v>46.61165763647296</v>
       </c>
       <c r="I3">
         <v>4.1</v>
       </c>
       <c r="J3">
-        <v>75.32973892986774</v>
+        <v>75.3297389484942</v>
       </c>
       <c r="K3">
         <v>34.7186782470604</v>
@@ -743,13 +743,13 @@
         <v>75.45999999999999</v>
       </c>
       <c r="R3">
-        <v>16.95220587833319</v>
+        <v>16.95220587251242</v>
       </c>
       <c r="S3">
         <v>84190.7</v>
       </c>
       <c r="T3">
-        <v>221897.4117567539</v>
+        <v>221897.4117786884</v>
       </c>
       <c r="U3">
         <v>1.44</v>
@@ -764,34 +764,34 @@
         <v>34762</v>
       </c>
       <c r="Y3">
-        <v>61.33781867515063</v>
+        <v>61.33781867835205</v>
       </c>
       <c r="Z3">
-        <v>64150.54166316986</v>
+        <v>64150.54166293144</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-5248.678320795298</v>
       </c>
       <c r="AB3">
-        <v>8940621.793029785</v>
+        <v>8940621.789733887</v>
       </c>
       <c r="AC3">
-        <v>10206548.51696777</v>
+        <v>10206548.51940918</v>
       </c>
       <c r="AD3">
-        <v>44938.95454931259</v>
+        <v>44938.95455980301</v>
       </c>
       <c r="AE3">
-        <v>616788.6751556396</v>
+        <v>616788.675163269</v>
       </c>
       <c r="AF3">
-        <v>20730.86060411885</v>
+        <v>41730.93760219036</v>
       </c>
       <c r="AG3">
-        <v>103148.6624383926</v>
+        <v>103148.6624555588</v>
       </c>
       <c r="AH3">
-        <v>934603.2026760101</v>
+        <v>881301.8102616017</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>2.25</v>
       </c>
       <c r="H4">
-        <v>48.5934558819572</v>
+        <v>48.59345588214637</v>
       </c>
       <c r="I4">
         <v>3.8</v>
       </c>
       <c r="J4">
-        <v>81.98159321397543</v>
+        <v>81.98159323260188</v>
       </c>
       <c r="K4">
         <v>27.993281612413</v>
@@ -847,7 +847,7 @@
         <v>77.39</v>
       </c>
       <c r="R4">
-        <v>14.38499999721535</v>
+        <v>14.38499999162741</v>
       </c>
       <c r="S4">
         <v>116088.9</v>
@@ -868,34 +868,34 @@
         <v>37794</v>
       </c>
       <c r="Y4">
-        <v>64.33141208277084</v>
+        <v>64.33141208573943</v>
       </c>
       <c r="Z4">
         <v>64418</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-4071.883116066456</v>
       </c>
       <c r="AB4">
-        <v>7590952.633911133</v>
+        <v>7590952.63079834</v>
       </c>
       <c r="AC4">
-        <v>8832013.238464355</v>
+        <v>8832013.240661621</v>
       </c>
       <c r="AD4">
-        <v>36215.80269956589</v>
+        <v>36215.80270862579</v>
       </c>
       <c r="AE4">
-        <v>550550.1263999939</v>
+        <v>550550.1264076233</v>
       </c>
       <c r="AF4">
-        <v>27191.74535024598</v>
+        <v>38504.94016676355</v>
       </c>
       <c r="AG4">
-        <v>91754.46503162384</v>
+        <v>91754.46504640579</v>
       </c>
       <c r="AH4">
-        <v>846947.832414232</v>
+        <v>1121035.062884673</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.6</v>
       </c>
       <c r="J5">
-        <v>100.5301343351603</v>
+        <v>100.5301343500614</v>
       </c>
       <c r="K5">
         <v>25.0614962666725</v>
@@ -972,34 +972,34 @@
         <v>31803</v>
       </c>
       <c r="Y5">
-        <v>67.11931867717067</v>
+        <v>67.11931867996464</v>
       </c>
       <c r="Z5">
         <v>54687</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-2977.047951281071</v>
       </c>
       <c r="AB5">
-        <v>6399099.05645752</v>
+        <v>6399099.053527832</v>
       </c>
       <c r="AC5">
-        <v>7619324.830810547</v>
+        <v>7619324.832702637</v>
       </c>
       <c r="AD5">
-        <v>28726.30319643021</v>
+        <v>28726.30320596695</v>
       </c>
       <c r="AE5">
-        <v>488672.2281932831</v>
+        <v>488672.2281970978</v>
       </c>
       <c r="AF5">
-        <v>41907.09245741297</v>
+        <v>12832.52034556001</v>
       </c>
       <c r="AG5">
-        <v>81553.56497621536</v>
+        <v>81553.56499004364</v>
       </c>
       <c r="AH5">
-        <v>839738.8874137059</v>
+        <v>1050792.034227581</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>31051</v>
       </c>
       <c r="Y6">
-        <v>69.70153845829191</v>
+        <v>69.70153846085304</v>
       </c>
       <c r="Z6">
         <v>60762</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>-1964.172826468945</v>
       </c>
       <c r="AB6">
-        <v>5365061.06072998</v>
+        <v>5365061.057983398</v>
       </c>
       <c r="AC6">
-        <v>6568483.293823242</v>
+        <v>6568483.295532227</v>
       </c>
       <c r="AD6">
-        <v>22470.45604228973</v>
+        <v>22470.4560508728</v>
       </c>
       <c r="AE6">
         <v>431154.9805431366</v>
       </c>
       <c r="AF6">
-        <v>22101.21747450267</v>
+        <v>25737.97592760838</v>
       </c>
       <c r="AG6">
-        <v>72545.96227550507</v>
+        <v>72545.96228647232</v>
       </c>
       <c r="AH6">
-        <v>1011721.409788671</v>
+        <v>730580.6700097092</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>82588</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-1033.257741570473</v>
       </c>
       <c r="AB7">
-        <v>4488838.646728516</v>
+        <v>4488838.644165039</v>
       </c>
       <c r="AC7">
-        <v>5679488.627624512</v>
+        <v>5679488.629150391</v>
       </c>
       <c r="AD7">
-        <v>17448.2612361908</v>
+        <v>17448.26124286652</v>
       </c>
       <c r="AE7">
         <v>377998.3834381104</v>
       </c>
       <c r="AF7">
-        <v>11493.27953593049</v>
+        <v>36625.40816380665</v>
       </c>
       <c r="AG7">
-        <v>64731.6569275856</v>
+        <v>64731.65693616867</v>
       </c>
       <c r="AH7">
-        <v>1035699.326923058</v>
+        <v>845997.1332636604</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>88655</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-184.3026966750622</v>
       </c>
       <c r="AB8">
-        <v>3770431.81439209</v>
+        <v>3770431.812072754</v>
       </c>
       <c r="AC8">
-        <v>4952340.832275391</v>
+        <v>4952340.833496094</v>
       </c>
       <c r="AD8">
-        <v>13659.71877765656</v>
+        <v>13659.7187833786</v>
       </c>
       <c r="AE8">
-        <v>329202.4368839264</v>
+        <v>329202.4368801117</v>
       </c>
       <c r="AF8">
-        <v>30775.72925837283</v>
+        <v>38065.63585579629</v>
       </c>
       <c r="AG8">
-        <v>58110.64893245697</v>
+        <v>58110.64894008636</v>
       </c>
       <c r="AH8">
-        <v>1017624.887986493</v>
+        <v>853480.0059635193</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>83713</v>
       </c>
       <c r="AA9">
-        <v>582.6923079490662</v>
+        <v>582.6923082470894</v>
       </c>
       <c r="AB9">
-        <v>3209840.563781738</v>
+        <v>3209840.561706543</v>
       </c>
       <c r="AC9">
-        <v>4387039.907592773</v>
+        <v>4387039.908630371</v>
       </c>
       <c r="AD9">
-        <v>11104.82866716385</v>
+        <v>11104.82867240906</v>
       </c>
       <c r="AE9">
-        <v>284767.1408786774</v>
+        <v>284767.14087677</v>
       </c>
       <c r="AF9">
-        <v>47270.03500932104</v>
+        <v>25824.08002160376</v>
       </c>
       <c r="AG9">
-        <v>52682.93829059601</v>
+        <v>52682.93829631805</v>
       </c>
       <c r="AH9">
-        <v>841093.2764523042</v>
+        <v>1085407.754660789</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>86256</v>
       </c>
       <c r="AA10">
-        <v>1267.727273017168</v>
+        <v>1267.727273225784</v>
       </c>
       <c r="AB10">
-        <v>2807064.894836426</v>
+        <v>2807064.893005371</v>
       </c>
       <c r="AC10">
-        <v>3983585.853820801</v>
+        <v>3983585.854553223</v>
       </c>
       <c r="AD10">
-        <v>9783.590904712677</v>
+        <v>9783.590908050537</v>
       </c>
       <c r="AE10">
-        <v>244692.4954242706</v>
+        <v>244692.4954204559</v>
       </c>
       <c r="AF10">
-        <v>36843.22294100503</v>
+        <v>34880.91502878953</v>
       </c>
       <c r="AG10">
-        <v>48448.52500200272</v>
+        <v>48448.52500581741</v>
       </c>
       <c r="AH10">
-        <v>952667.4136039251</v>
+        <v>1118260.611666373</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>1299.1111</v>
       </c>
       <c r="K17">
-        <v>9.229974795598537</v>
+        <v>9.229974796180613</v>
       </c>
       <c r="L17">
-        <v>0.8801134126515535</v>
+        <v>0.8801134125787939</v>
       </c>
       <c r="M17">
         <v>4.46214127068714</v>
@@ -2282,10 +2282,10 @@
         <v>1556</v>
       </c>
       <c r="K18">
-        <v>10.0517165713245</v>
+        <v>10.05171657190658</v>
       </c>
       <c r="L18">
-        <v>0.9377008342016779</v>
+        <v>0.9377008341216424</v>
       </c>
       <c r="M18">
         <v>3.42161705657084</v>
@@ -2312,13 +2312,13 @@
         <v>146457</v>
       </c>
       <c r="U18">
-        <v>1.41023869972816</v>
+        <v>1.407314103811565</v>
       </c>
       <c r="V18">
         <v>95.59999999999999</v>
       </c>
       <c r="W18">
-        <v>104.1605054938118</v>
+        <v>104.1605054944521</v>
       </c>
       <c r="X18">
         <v>64135</v>
@@ -2386,10 +2386,10 @@
         <v>1584.9</v>
       </c>
       <c r="K19">
-        <v>11.21278932644054</v>
+        <v>11.21278932725545</v>
       </c>
       <c r="L19">
-        <v>1.005203012016864</v>
+        <v>1.005203011925914</v>
       </c>
       <c r="M19">
         <v>2.85604395074972</v>
@@ -2416,13 +2416,13 @@
         <v>23201</v>
       </c>
       <c r="U19">
-        <v>1.137500457880136</v>
+        <v>1.20368103651776</v>
       </c>
       <c r="V19">
         <v>96.09999999999999</v>
       </c>
       <c r="W19">
-        <v>106.1185164826747</v>
+        <v>106.1185164834023</v>
       </c>
       <c r="X19">
         <v>69704</v>
@@ -2472,7 +2472,7 @@
         <v>52.174</v>
       </c>
       <c r="E20">
-        <v>42186.84401342273</v>
+        <v>42186.84401345253</v>
       </c>
       <c r="F20">
         <v>30882.2025</v>
@@ -2490,10 +2490,10 @@
         <v>1854.0466</v>
       </c>
       <c r="K20">
-        <v>12.71319306094665</v>
+        <v>12.71319306176156</v>
       </c>
       <c r="L20">
-        <v>1.082619946093473</v>
+        <v>1.082619945998886</v>
       </c>
       <c r="M20">
         <v>1.09650621530704</v>
@@ -2520,13 +2520,13 @@
         <v>36432</v>
       </c>
       <c r="U20">
-        <v>1.243967882643316</v>
+        <v>1.200522359873955</v>
       </c>
       <c r="V20">
         <v>96.8</v>
       </c>
       <c r="W20">
-        <v>108.1755917896226</v>
+        <v>108.1755917903502</v>
       </c>
       <c r="X20">
         <v>67982</v>
@@ -2594,25 +2594,25 @@
         <v>1912.2987</v>
       </c>
       <c r="K21">
-        <v>14.55292777484283</v>
+        <v>14.55292777589057</v>
       </c>
       <c r="L21">
-        <v>1.169951636446058</v>
+        <v>1.169951636329642</v>
       </c>
       <c r="M21">
         <v>0.7611963129553589</v>
       </c>
       <c r="N21">
-        <v>225.3926470599836</v>
+        <v>225.3926470596343</v>
       </c>
       <c r="O21">
-        <v>111.9143137214705</v>
+        <v>111.9143137261271</v>
       </c>
       <c r="P21">
         <v>516.6</v>
       </c>
       <c r="Q21">
-        <v>93.75281862576958</v>
+        <v>93.75281862635165</v>
       </c>
       <c r="R21">
         <v>43.5</v>
@@ -2621,22 +2621,22 @@
         <v>2640876</v>
       </c>
       <c r="T21">
-        <v>51017.54412317276</v>
+        <v>51017.54410552979</v>
       </c>
       <c r="U21">
-        <v>1.209922205392239</v>
+        <v>1.18093362167205</v>
       </c>
       <c r="V21">
         <v>97</v>
       </c>
       <c r="W21">
-        <v>110.331731414597</v>
+        <v>110.3317314154119</v>
       </c>
       <c r="X21">
-        <v>77360.72304010391</v>
+        <v>77360.72304016352</v>
       </c>
       <c r="Y21">
-        <v>83.7524175826693</v>
+        <v>83.75241757871117</v>
       </c>
       <c r="Z21">
         <v>3211</v>
@@ -2692,58 +2692,58 @@
         <v>74.42</v>
       </c>
       <c r="I22">
-        <v>2.990464396210882</v>
+        <v>2.99046439628728</v>
       </c>
       <c r="J22">
-        <v>2236.048419333994</v>
+        <v>2236.048419293016</v>
       </c>
       <c r="K22">
-        <v>16.73199346812908</v>
+        <v>16.73199346929323</v>
       </c>
       <c r="L22">
-        <v>1.267198083049152</v>
+        <v>1.267198082929099</v>
       </c>
       <c r="M22">
-        <v>8.105408563744277</v>
+        <v>8.105408573057503</v>
       </c>
       <c r="N22">
-        <v>227.8806243561557</v>
+        <v>227.8806243559229</v>
       </c>
       <c r="O22">
-        <v>129.3746749171987</v>
+        <v>129.3746749218553</v>
       </c>
       <c r="P22">
-        <v>433.1857628319412</v>
+        <v>433.1857629027218</v>
       </c>
       <c r="Q22">
-        <v>91.092841845355</v>
+        <v>91.0928418461699</v>
       </c>
       <c r="R22">
-        <v>49.28426469967235</v>
+        <v>49.28426471177954</v>
       </c>
       <c r="S22">
         <v>2145395</v>
       </c>
       <c r="T22">
-        <v>35085.37745690346</v>
+        <v>35085.37743806839</v>
       </c>
       <c r="U22">
-        <v>1.217667369627275</v>
+        <v>1.277769402067727</v>
       </c>
       <c r="V22">
-        <v>96.04147574864328</v>
+        <v>96.04147574678063</v>
       </c>
       <c r="W22">
-        <v>112.5869353576272</v>
+        <v>112.5869353584421</v>
       </c>
       <c r="X22">
-        <v>82109.54269963503</v>
+        <v>82109.54269969463</v>
       </c>
       <c r="Y22">
-        <v>83.04364835150773</v>
+        <v>83.04364834690932</v>
       </c>
       <c r="Z22">
-        <v>9978.678922653198</v>
+        <v>9978.678924560547</v>
       </c>
       <c r="AA22">
         <v>3539</v>
@@ -2787,91 +2787,91 @@
         <v>51700.26418173313</v>
       </c>
       <c r="F23">
-        <v>39904.35702753067</v>
+        <v>39904.35702738166</v>
       </c>
       <c r="G23">
         <v>-2.7</v>
       </c>
       <c r="H23">
-        <v>75.36600490204</v>
+        <v>75.36600490189448</v>
       </c>
       <c r="I23">
-        <v>3.028165118601464</v>
+        <v>3.0281651186815</v>
       </c>
       <c r="J23">
-        <v>2468.737323503941</v>
+        <v>2468.737323462963</v>
       </c>
       <c r="K23">
-        <v>19.25039014092181</v>
+        <v>19.25039014220238</v>
       </c>
       <c r="L23">
-        <v>1.374359285920946</v>
+        <v>1.374359285789978</v>
       </c>
       <c r="M23">
-        <v>11.53657402540557</v>
+        <v>11.53657403495163</v>
       </c>
       <c r="N23">
-        <v>230.5428792582825</v>
+        <v>230.5428792581079</v>
       </c>
       <c r="O23">
-        <v>148.1366976192221</v>
+        <v>148.1366976238787</v>
       </c>
       <c r="P23">
-        <v>479.038685714826</v>
+        <v>479.0386857967824</v>
       </c>
       <c r="Q23">
-        <v>88.08436790318228</v>
+        <v>88.08436790364794</v>
       </c>
       <c r="R23">
-        <v>55.72916665871162</v>
+        <v>55.72916667279787</v>
       </c>
       <c r="S23">
-        <v>2702063.573675156</v>
+        <v>2702063.57373333</v>
       </c>
       <c r="T23">
-        <v>18475.4380865097</v>
+        <v>18475.43806648254</v>
       </c>
       <c r="U23">
-        <v>1.169616260417788</v>
+        <v>1.310353475724869</v>
       </c>
       <c r="V23">
-        <v>95.62263777141925</v>
+        <v>95.62263776944019</v>
       </c>
       <c r="W23">
-        <v>114.941203618655</v>
+        <v>114.941203619499</v>
       </c>
       <c r="X23">
         <v>87099.4326634407</v>
       </c>
       <c r="Y23">
-        <v>82.12919230706757</v>
+        <v>82.12919230182888</v>
       </c>
       <c r="Z23">
-        <v>1022.124485254288</v>
+        <v>1022.124487400055</v>
       </c>
       <c r="AA23">
-        <v>2714.818181574345</v>
+        <v>2714.818181306124</v>
       </c>
       <c r="AB23">
-        <v>11932199.13336182</v>
+        <v>11932199.13549805</v>
       </c>
       <c r="AC23">
-        <v>13466748.39276123</v>
+        <v>13466748.39227295</v>
       </c>
       <c r="AD23">
         <v>104869.8636469841</v>
       </c>
       <c r="AE23">
-        <v>120541.3046035767</v>
+        <v>120541.3046169281</v>
       </c>
       <c r="AF23">
-        <v>24265.02786899801</v>
+        <v>18655.68224873848</v>
       </c>
       <c r="AG23">
-        <v>101991.2113757133</v>
+        <v>101991.211376667</v>
       </c>
       <c r="AH23">
-        <v>842279.4299167796</v>
+        <v>995136.8129354157</v>
       </c>
     </row>
   </sheetData>
